--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.4.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.4.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="773">
   <si>
     <t>key</t>
   </si>
@@ -52,10 +52,10 @@
     <t>version_mixs_sc_rnaseq</t>
   </si>
   <si>
-    <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Minimum Information about any (x) Sequence (MIxS)]</t>
-  </si>
-  <si>
-    <t>For single cell RNA-seq studies with a focus on the essential contextual details for the sampling and sequencing of genomic data.</t>
+    <t>Minimum Information about any Sequence metadata [Minimum Information about any Sequence]</t>
+  </si>
+  <si>
+    <t>For single-cell Ribonucleic Acid Sequencing (RNA-seq) studies with a focus on the essential contextual details for the sampling and sequencing of genomic data.</t>
   </si>
   <si>
     <t>mixs</t>
@@ -115,7 +115,7 @@
     <t>A unique alphanumeric identifier for this study</t>
   </si>
   <si>
-    <t>e.g. A7F9B3X2</t>
+    <t>e.g. STUDY001</t>
   </si>
   <si>
     <t>Official name of the study or project. Project title should be fewer than 30 words, such as a title of a grant proposal or a publication.</t>
@@ -295,7 +295,7 @@
     <t>A unique alphanumeric reference or identifier for the sample. This field must provide a consistent, unambiguous way to identify the sample within and across datasets. It can be a name, code, or accession-like format, as long as it remains unique.</t>
   </si>
   <si>
-    <t>e.g. sample123</t>
+    <t>e.g. SAMPLE001</t>
   </si>
   <si>
     <t>The formal Latin name used to identify the organism from which the sample was derived (e.g. Homo sapiens or Arabidopsis thaliana). This name must accurately correspond to the Taxon ID provided to ensure correct taxonomic classification.</t>
@@ -370,7 +370,7 @@
     <t>A unique alphanumeric code for the dissociation protocol in the study</t>
   </si>
   <si>
-    <t>e.g. disProtocol123</t>
+    <t>e.g. DISSOC001</t>
   </si>
   <si>
     <t>A descriptive name of the protocol used for single-cell sequencing.</t>
@@ -490,7 +490,7 @@
     <t>A unique alphanumeric code for the cell suspension for the sample</t>
   </si>
   <si>
-    <t>e.g. cellSusp123</t>
+    <t>e.g. CELLSUSP001</t>
   </si>
   <si>
     <t>A unique alphanumeric reference or identifier for the sample associated with the cell suspension. This field must provide a consistent, unambiguous way to identify the sample within and across datasets. It can be a name, code, or accession-like format, as long as it remains unique.</t>
@@ -733,7 +733,7 @@
     <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
   </si>
   <si>
-    <t>e.g. libPrep123</t>
+    <t>e.g. LIBPREP001</t>
   </si>
   <si>
     <t>A unique alphanumeric code for the cell suspension for the library preparation.</t>
@@ -856,7 +856,7 @@
     <t>Identifier for the 96-well plate used in sample preparation.</t>
   </si>
   <si>
-    <t>e.g. plate123</t>
+    <t>e.g. PLT001</t>
   </si>
   <si>
     <t>The row identifier in a 96-well plate indicating the sample's position.</t>
@@ -1240,7 +1240,7 @@
     <t>A unique alphanumeric reference or identifier for the sequencing protocol.</t>
   </si>
   <si>
-    <t>e.g. seq123</t>
+    <t>e.g. SEQ001</t>
   </si>
   <si>
     <t>The name of the sequencing platform used for the experiment.</t>
@@ -2051,6 +2051,9 @@
     <t>read_2_file (optional)</t>
   </si>
   <si>
+    <t>index_1_file (optional)</t>
+  </si>
+  <si>
     <t>index_2_file (optional)</t>
   </si>
   <si>
@@ -2090,10 +2093,13 @@
     <t>Result of a hash function calculated on the content of the read 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
   </si>
   <si>
-    <t>e.g. 32-char hex</t>
+    <t>e.g. f8d29e41a73b5c02de9a6fb314e7c8ad</t>
   </si>
   <si>
     <t>Result of a hash function calculated on the content of the read 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>e.g. a3f4c1b29d8e57fa41b02de6c7f9ab83</t>
   </si>
   <si>
     <t>A file containing the known cell barcodes in the
@@ -2187,7 +2193,7 @@
     <t>A unique alphanumeric identifier for the expression data process setting</t>
   </si>
   <si>
-    <t>e.g. expdataprocess1</t>
+    <t>e.g. EXPSET001</t>
   </si>
   <si>
     <t>Matrix Type</t>
@@ -2199,25 +2205,25 @@
     <t>The associated reference genome</t>
   </si>
   <si>
-    <t>e.g. the download link for GRCh38.p13, GRCm39, TAIR10 …</t>
+    <t>e.g. https://reference-genome-example.com</t>
   </si>
   <si>
     <t>The annotation version of the associated reference genome</t>
   </si>
   <si>
-    <t>e.g. Ensembl 110, GENCODE v44 …</t>
+    <t>e.g. GENCODE v44</t>
   </si>
   <si>
     <t>Any normalisation processing performed</t>
   </si>
   <si>
-    <t>e.g. Log Normalisation</t>
+    <t>e.g. Log normalisation</t>
   </si>
   <si>
     <t>Number of Highly Variable Genes</t>
   </si>
   <si>
-    <t>e.g. seurat_v3, n=2000 (or none)</t>
+    <t>e.g. seurat_v3, n=2000</t>
   </si>
   <si>
     <t>Method used to reduce dimensionality in the expression data</t>
@@ -2229,7 +2235,7 @@
     <t>Number of nearest neighbours used to calculate cluster membership</t>
   </si>
   <si>
-    <t>e.g. pca:50, mnn:30 …</t>
+    <t>e.g. pca:50</t>
   </si>
   <si>
     <t>Algorithm used to create clusters</t>
@@ -2238,7 +2244,7 @@
     <t>Resolution parameter</t>
   </si>
   <si>
-    <t>e.g. Numeric (1.0) or NA</t>
+    <t>e.g. 2.5</t>
   </si>
   <si>
     <t>Metic used to calculate a points distance to others</t>
@@ -2301,7 +2307,7 @@
     <t>A unique alphanumeric identifier for the expression data file</t>
   </si>
   <si>
-    <t>e.g. AB3X2</t>
+    <t>e.g. EXPFILE001</t>
   </si>
   <si>
     <t>A unique alphanumeric identifier for library preparation</t>
@@ -2310,9 +2316,15 @@
     <t>Expression data file name</t>
   </si>
   <si>
+    <t>e.g. exp_file.csv</t>
+  </si>
+  <si>
     <t>calculated md5 checksum for this file</t>
   </si>
   <si>
+    <t>e.g. 9e4b7a23f6c1d0ab85f29c47e3d8a610</t>
+  </si>
+  <si>
     <t>The format of the expression file, such as h5ad or rds</t>
   </si>
   <si>
@@ -2322,10 +2334,16 @@
     <t>The number of cells represented in the expression data</t>
   </si>
   <si>
+    <t>e.g. 4</t>
+  </si>
+  <si>
     <t>The number of genese represented in the expression data</t>
   </si>
   <si>
     <t>Size of the file recorded in bytes</t>
+  </si>
+  <si>
+    <t>e.g. 90</t>
   </si>
   <si>
     <t>Approximate date this expression data was generated</t>
@@ -2723,8 +2741,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2771,7 +2789,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="920E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C853" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2852,7 +2870,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A68C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B753" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3158,7 +3176,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D5FB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FCED" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3239,7 +3257,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FCF9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD3D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3361,7 +3379,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8443" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CD0D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3376,7 +3394,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3384,15 +3402,16 @@
   <cols>
     <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="38.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="248.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="38.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3400,69 +3419,75 @@
         <v>664</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>677</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -3470,34 +3495,37 @@
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>678</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
@@ -3511,13 +3539,14 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="854F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B9CB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:K4">
+  <conditionalFormatting sqref="A1:L4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -3537,7 +3566,7 @@
     <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -3557,49 +3586,49 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3607,49 +3636,49 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3657,37 +3686,37 @@
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>299</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>299</v>
@@ -3723,7 +3752,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8619" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A5EC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3763,7 +3792,7 @@
     <col min="3" max="3" width="50.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3776,34 +3805,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3811,34 +3840,34 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3846,34 +3875,34 @@
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>234</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>299</v>
+        <v>761</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>299</v>
+        <v>767</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>299</v>
+        <v>770</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3892,7 +3921,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B953" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FFDB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4041,7 +4070,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A64F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E740" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4808,7 +4837,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F6BA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A287" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4897,7 +4926,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9986" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AE8C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5052,7 +5081,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD7A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BFA5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5245,7 +5274,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C882" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9945" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5702,7 +5731,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D8A5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="85C7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5976,7 +6005,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A3E6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="912D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
